--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.66548412098042</v>
+        <v>5.984295666666665</v>
       </c>
       <c r="H2">
-        <v>1.66548412098042</v>
+        <v>17.952887</v>
       </c>
       <c r="I2">
-        <v>0.01706276374374652</v>
+        <v>0.04926888188268457</v>
       </c>
       <c r="J2">
-        <v>0.01706276374374652</v>
+        <v>0.04926888188268458</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.26584608635949</v>
+        <v>8.394385333333334</v>
       </c>
       <c r="N2">
-        <v>7.26584608635949</v>
+        <v>25.183156</v>
       </c>
       <c r="O2">
-        <v>0.09093191257178947</v>
+        <v>0.0956753723079781</v>
       </c>
       <c r="P2">
-        <v>0.09093191257178947</v>
+        <v>0.09567537230797811</v>
       </c>
       <c r="Q2">
-        <v>12.10115128231946</v>
+        <v>50.23448377459688</v>
       </c>
       <c r="R2">
-        <v>12.10115128231946</v>
+        <v>452.1103539713719</v>
       </c>
       <c r="S2">
-        <v>0.001551549740979457</v>
+        <v>0.004713818617323643</v>
       </c>
       <c r="T2">
-        <v>0.001551549740979457</v>
+        <v>0.004713818617323644</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.66548412098042</v>
+        <v>5.984295666666665</v>
       </c>
       <c r="H3">
-        <v>1.66548412098042</v>
+        <v>17.952887</v>
       </c>
       <c r="I3">
-        <v>0.01706276374374652</v>
+        <v>0.04926888188268457</v>
       </c>
       <c r="J3">
-        <v>0.01706276374374652</v>
+        <v>0.04926888188268458</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.4947162737205</v>
+        <v>10.728784</v>
       </c>
       <c r="N3">
-        <v>10.4947162737205</v>
+        <v>32.186352</v>
       </c>
       <c r="O3">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="P3">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="Q3">
-        <v>17.4787833080763</v>
+        <v>64.20421559980265</v>
       </c>
       <c r="R3">
-        <v>17.4787833080763</v>
+        <v>577.8379403982239</v>
       </c>
       <c r="S3">
-        <v>0.002241043110824066</v>
+        <v>0.00602468671048744</v>
       </c>
       <c r="T3">
-        <v>0.002241043110824066</v>
+        <v>0.006024686710487443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.66548412098042</v>
+        <v>5.984295666666665</v>
       </c>
       <c r="H4">
-        <v>1.66548412098042</v>
+        <v>17.952887</v>
       </c>
       <c r="I4">
-        <v>0.01706276374374652</v>
+        <v>0.04926888188268457</v>
       </c>
       <c r="J4">
-        <v>0.01706276374374652</v>
+        <v>0.04926888188268458</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.36087346180102</v>
+        <v>2.472198666666666</v>
       </c>
       <c r="N4">
-        <v>2.36087346180102</v>
+        <v>7.416595999999999</v>
       </c>
       <c r="O4">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="P4">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="Q4">
-        <v>3.931997262273673</v>
+        <v>14.79436776807244</v>
       </c>
       <c r="R4">
-        <v>3.931997262273673</v>
+        <v>133.149309912652</v>
       </c>
       <c r="S4">
-        <v>0.0005041412334647978</v>
+        <v>0.001388248887548807</v>
       </c>
       <c r="T4">
-        <v>0.0005041412334647978</v>
+        <v>0.001388248887548807</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.66548412098042</v>
+        <v>5.984295666666665</v>
       </c>
       <c r="H5">
-        <v>1.66548412098042</v>
+        <v>17.952887</v>
       </c>
       <c r="I5">
-        <v>0.01706276374374652</v>
+        <v>0.04926888188268457</v>
       </c>
       <c r="J5">
-        <v>0.01706276374374652</v>
+        <v>0.04926888188268458</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.8242313485253</v>
+        <v>2.941697666666666</v>
       </c>
       <c r="N5">
-        <v>2.8242313485253</v>
+        <v>8.825092999999999</v>
       </c>
       <c r="O5">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026181</v>
       </c>
       <c r="P5">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026182</v>
       </c>
       <c r="Q5">
-        <v>4.703712464944005</v>
+        <v>17.60398859927677</v>
       </c>
       <c r="R5">
-        <v>4.703712464944005</v>
+        <v>158.435897393491</v>
       </c>
       <c r="S5">
-        <v>0.0006030867383080001</v>
+        <v>0.00165189334025539</v>
       </c>
       <c r="T5">
-        <v>0.0006030867383080001</v>
+        <v>0.00165189334025539</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.66548412098042</v>
+        <v>5.984295666666665</v>
       </c>
       <c r="H6">
-        <v>1.66548412098042</v>
+        <v>17.952887</v>
       </c>
       <c r="I6">
-        <v>0.01706276374374652</v>
+        <v>0.04926888188268457</v>
       </c>
       <c r="J6">
-        <v>0.01706276374374652</v>
+        <v>0.04926888188268458</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.6015360424476</v>
+        <v>48.46838633333333</v>
       </c>
       <c r="N6">
-        <v>45.6015360424476</v>
+        <v>145.405159</v>
       </c>
       <c r="O6">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="P6">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="Q6">
-        <v>75.94863417101278</v>
+        <v>290.0491543048925</v>
       </c>
       <c r="R6">
-        <v>75.94863417101278</v>
+        <v>2610.442388744033</v>
       </c>
       <c r="S6">
-        <v>0.009737758079923128</v>
+        <v>0.02721714250386665</v>
       </c>
       <c r="T6">
-        <v>0.009737758079923128</v>
+        <v>0.02721714250386666</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.66548412098042</v>
+        <v>5.984295666666665</v>
       </c>
       <c r="H7">
-        <v>1.66548412098042</v>
+        <v>17.952887</v>
       </c>
       <c r="I7">
-        <v>0.01706276374374652</v>
+        <v>0.04926888188268457</v>
       </c>
       <c r="J7">
-        <v>0.01706276374374652</v>
+        <v>0.04926888188268458</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.3570447113631</v>
+        <v>14.732752</v>
       </c>
       <c r="N7">
-        <v>11.3570447113631</v>
+        <v>44.198256</v>
       </c>
       <c r="O7">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="P7">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="Q7">
-        <v>18.9149776280399</v>
+        <v>88.16514395167465</v>
       </c>
       <c r="R7">
-        <v>18.9149776280399</v>
+        <v>793.4862955650718</v>
       </c>
       <c r="S7">
-        <v>0.002425184840247069</v>
+        <v>0.008273091823202636</v>
       </c>
       <c r="T7">
-        <v>0.002425184840247069</v>
+        <v>0.00827309182320264</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.3025374417642</v>
+        <v>35.48837766666667</v>
       </c>
       <c r="H8">
-        <v>34.3025374417642</v>
+        <v>106.465133</v>
       </c>
       <c r="I8">
-        <v>0.3514270023993357</v>
+        <v>0.292176855031801</v>
       </c>
       <c r="J8">
-        <v>0.3514270023993357</v>
+        <v>0.292176855031801</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.26584608635949</v>
+        <v>8.394385333333334</v>
       </c>
       <c r="N8">
-        <v>7.26584608635949</v>
+        <v>25.183156</v>
       </c>
       <c r="O8">
-        <v>0.09093191257178947</v>
+        <v>0.0956753723079781</v>
       </c>
       <c r="P8">
-        <v>0.09093191257178947</v>
+        <v>0.09567537230797811</v>
       </c>
       <c r="Q8">
-        <v>249.2369574234423</v>
+        <v>297.903116988861</v>
       </c>
       <c r="R8">
-        <v>249.2369574234423</v>
+        <v>2681.128052899748</v>
       </c>
       <c r="S8">
-        <v>0.03195592945754244</v>
+        <v>0.0279541293849417</v>
       </c>
       <c r="T8">
-        <v>0.03195592945754244</v>
+        <v>0.02795412938494171</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.3025374417642</v>
+        <v>35.48837766666667</v>
       </c>
       <c r="H9">
-        <v>34.3025374417642</v>
+        <v>106.465133</v>
       </c>
       <c r="I9">
-        <v>0.3514270023993357</v>
+        <v>0.292176855031801</v>
       </c>
       <c r="J9">
-        <v>0.3514270023993357</v>
+        <v>0.292176855031801</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.4947162737205</v>
+        <v>10.728784</v>
       </c>
       <c r="N9">
-        <v>10.4947162737205</v>
+        <v>32.186352</v>
       </c>
       <c r="O9">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="P9">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="Q9">
-        <v>359.9953979199896</v>
+        <v>380.7471384960907</v>
       </c>
       <c r="R9">
-        <v>359.9953979199896</v>
+        <v>3426.724246464816</v>
       </c>
       <c r="S9">
-        <v>0.04615682866576785</v>
+        <v>0.0357279067102343</v>
       </c>
       <c r="T9">
-        <v>0.04615682866576785</v>
+        <v>0.03572790671023431</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.3025374417642</v>
+        <v>35.48837766666667</v>
       </c>
       <c r="H10">
-        <v>34.3025374417642</v>
+        <v>106.465133</v>
       </c>
       <c r="I10">
-        <v>0.3514270023993357</v>
+        <v>0.292176855031801</v>
       </c>
       <c r="J10">
-        <v>0.3514270023993357</v>
+        <v>0.292176855031801</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.36087346180102</v>
+        <v>2.472198666666666</v>
       </c>
       <c r="N10">
-        <v>2.36087346180102</v>
+        <v>7.416595999999999</v>
       </c>
       <c r="O10">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="P10">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="Q10">
-        <v>80.98395031869696</v>
+        <v>87.73431994969646</v>
       </c>
       <c r="R10">
-        <v>80.98395031869696</v>
+        <v>789.608879547268</v>
       </c>
       <c r="S10">
-        <v>0.01038336140165861</v>
+        <v>0.008232664888381785</v>
       </c>
       <c r="T10">
-        <v>0.01038336140165861</v>
+        <v>0.008232664888381787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.3025374417642</v>
+        <v>35.48837766666667</v>
       </c>
       <c r="H11">
-        <v>34.3025374417642</v>
+        <v>106.465133</v>
       </c>
       <c r="I11">
-        <v>0.3514270023993357</v>
+        <v>0.292176855031801</v>
       </c>
       <c r="J11">
-        <v>0.3514270023993357</v>
+        <v>0.292176855031801</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.8242313485253</v>
+        <v>2.941697666666666</v>
       </c>
       <c r="N11">
-        <v>2.8242313485253</v>
+        <v>8.825092999999999</v>
       </c>
       <c r="O11">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026181</v>
       </c>
       <c r="P11">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026182</v>
       </c>
       <c r="Q11">
-        <v>96.87830157699329</v>
+        <v>104.3960777758188</v>
       </c>
       <c r="R11">
-        <v>96.87830157699329</v>
+        <v>939.564699982369</v>
       </c>
       <c r="S11">
-        <v>0.01242125647482221</v>
+        <v>0.009796142769243987</v>
       </c>
       <c r="T11">
-        <v>0.01242125647482221</v>
+        <v>0.009796142769243989</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.3025374417642</v>
+        <v>35.48837766666667</v>
       </c>
       <c r="H12">
-        <v>34.3025374417642</v>
+        <v>106.465133</v>
       </c>
       <c r="I12">
-        <v>0.3514270023993357</v>
+        <v>0.292176855031801</v>
       </c>
       <c r="J12">
-        <v>0.3514270023993357</v>
+        <v>0.292176855031801</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.6015360424476</v>
+        <v>48.46838633333333</v>
       </c>
       <c r="N12">
-        <v>45.6015360424476</v>
+        <v>145.405159</v>
       </c>
       <c r="O12">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="P12">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="Q12">
-        <v>1564.248397498018</v>
+        <v>1720.064399091239</v>
       </c>
       <c r="R12">
-        <v>1564.248397498018</v>
+        <v>15480.57959182115</v>
       </c>
       <c r="S12">
-        <v>0.2005601896334933</v>
+        <v>0.161404497034606</v>
       </c>
       <c r="T12">
-        <v>0.2005601896334933</v>
+        <v>0.161404497034606</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.3025374417642</v>
+        <v>35.48837766666667</v>
       </c>
       <c r="H13">
-        <v>34.3025374417642</v>
+        <v>106.465133</v>
       </c>
       <c r="I13">
-        <v>0.3514270023993357</v>
+        <v>0.292176855031801</v>
       </c>
       <c r="J13">
-        <v>0.3514270023993357</v>
+        <v>0.292176855031801</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.3570447113631</v>
+        <v>14.732752</v>
       </c>
       <c r="N13">
-        <v>11.3570447113631</v>
+        <v>44.198256</v>
       </c>
       <c r="O13">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="P13">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="Q13">
-        <v>389.5754514393229</v>
+        <v>522.8414670453387</v>
       </c>
       <c r="R13">
-        <v>389.5754514393229</v>
+        <v>4705.573203408048</v>
       </c>
       <c r="S13">
-        <v>0.0499494367660513</v>
+        <v>0.0490615142443932</v>
       </c>
       <c r="T13">
-        <v>0.0499494367660513</v>
+        <v>0.04906151424439321</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.2894371470066</v>
+        <v>27.415392</v>
       </c>
       <c r="H14">
-        <v>18.2894371470066</v>
+        <v>82.24617600000001</v>
       </c>
       <c r="I14">
-        <v>0.1873739539838841</v>
+        <v>0.2257117270691053</v>
       </c>
       <c r="J14">
-        <v>0.1873739539838841</v>
+        <v>0.2257117270691053</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.26584608635949</v>
+        <v>8.394385333333334</v>
       </c>
       <c r="N14">
-        <v>7.26584608635949</v>
+        <v>25.183156</v>
       </c>
       <c r="O14">
-        <v>0.09093191257178947</v>
+        <v>0.0956753723079781</v>
       </c>
       <c r="P14">
-        <v>0.09093191257178947</v>
+        <v>0.09567537230797811</v>
       </c>
       <c r="Q14">
-        <v>132.8882353162958</v>
+        <v>230.135364512384</v>
       </c>
       <c r="R14">
-        <v>132.8882353162958</v>
+        <v>2071.218280611456</v>
       </c>
       <c r="S14">
-        <v>0.01703827200189305</v>
+        <v>0.02159505352161338</v>
       </c>
       <c r="T14">
-        <v>0.01703827200189305</v>
+        <v>0.02159505352161339</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.2894371470066</v>
+        <v>27.415392</v>
       </c>
       <c r="H15">
-        <v>18.2894371470066</v>
+        <v>82.24617600000001</v>
       </c>
       <c r="I15">
-        <v>0.1873739539838841</v>
+        <v>0.2257117270691053</v>
       </c>
       <c r="J15">
-        <v>0.1873739539838841</v>
+        <v>0.2257117270691053</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.4947162737205</v>
+        <v>10.728784</v>
       </c>
       <c r="N15">
-        <v>10.4947162737205</v>
+        <v>32.186352</v>
       </c>
       <c r="O15">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="P15">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="Q15">
-        <v>191.9424536638784</v>
+        <v>294.133819043328</v>
       </c>
       <c r="R15">
-        <v>191.9424536638784</v>
+        <v>2647.204371389952</v>
       </c>
       <c r="S15">
-        <v>0.02460991167842588</v>
+        <v>0.02760043237255441</v>
       </c>
       <c r="T15">
-        <v>0.02460991167842588</v>
+        <v>0.02760043237255442</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.2894371470066</v>
+        <v>27.415392</v>
       </c>
       <c r="H16">
-        <v>18.2894371470066</v>
+        <v>82.24617600000001</v>
       </c>
       <c r="I16">
-        <v>0.1873739539838841</v>
+        <v>0.2257117270691053</v>
       </c>
       <c r="J16">
-        <v>0.1873739539838841</v>
+        <v>0.2257117270691053</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.36087346180102</v>
+        <v>2.472198666666666</v>
       </c>
       <c r="N16">
-        <v>2.36087346180102</v>
+        <v>7.416595999999999</v>
       </c>
       <c r="O16">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="P16">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="Q16">
-        <v>43.17904679164564</v>
+        <v>67.776295548544</v>
       </c>
       <c r="R16">
-        <v>43.17904679164564</v>
+        <v>609.986659936896</v>
       </c>
       <c r="S16">
-        <v>0.005536203729904667</v>
+        <v>0.006359877513691441</v>
       </c>
       <c r="T16">
-        <v>0.005536203729904667</v>
+        <v>0.006359877513691443</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.2894371470066</v>
+        <v>27.415392</v>
       </c>
       <c r="H17">
-        <v>18.2894371470066</v>
+        <v>82.24617600000001</v>
       </c>
       <c r="I17">
-        <v>0.1873739539838841</v>
+        <v>0.2257117270691053</v>
       </c>
       <c r="J17">
-        <v>0.1873739539838841</v>
+        <v>0.2257117270691053</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.8242313485253</v>
+        <v>2.941697666666666</v>
       </c>
       <c r="N17">
-        <v>2.8242313485253</v>
+        <v>8.825092999999999</v>
       </c>
       <c r="O17">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026181</v>
       </c>
       <c r="P17">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026182</v>
       </c>
       <c r="Q17">
-        <v>51.65360173745916</v>
+        <v>80.64779467715199</v>
       </c>
       <c r="R17">
-        <v>51.65360173745916</v>
+        <v>725.8301520943679</v>
       </c>
       <c r="S17">
-        <v>0.006622769232998923</v>
+        <v>0.00756769150253509</v>
       </c>
       <c r="T17">
-        <v>0.006622769232998923</v>
+        <v>0.007567691502535093</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.2894371470066</v>
+        <v>27.415392</v>
       </c>
       <c r="H18">
-        <v>18.2894371470066</v>
+        <v>82.24617600000001</v>
       </c>
       <c r="I18">
-        <v>0.1873739539838841</v>
+        <v>0.2257117270691053</v>
       </c>
       <c r="J18">
-        <v>0.1873739539838841</v>
+        <v>0.2257117270691053</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>45.6015360424476</v>
+        <v>48.46838633333333</v>
       </c>
       <c r="N18">
-        <v>45.6015360424476</v>
+        <v>145.405159</v>
       </c>
       <c r="O18">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="P18">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="Q18">
-        <v>834.0264272553014</v>
+        <v>1328.779810935776</v>
       </c>
       <c r="R18">
-        <v>834.0264272553014</v>
+        <v>11959.01829842198</v>
       </c>
       <c r="S18">
-        <v>0.1069347417438413</v>
+        <v>0.1246877949262477</v>
       </c>
       <c r="T18">
-        <v>0.1069347417438413</v>
+        <v>0.1246877949262477</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.2894371470066</v>
+        <v>27.415392</v>
       </c>
       <c r="H19">
-        <v>18.2894371470066</v>
+        <v>82.24617600000001</v>
       </c>
       <c r="I19">
-        <v>0.1873739539838841</v>
+        <v>0.2257117270691053</v>
       </c>
       <c r="J19">
-        <v>0.1873739539838841</v>
+        <v>0.2257117270691053</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.3570447113631</v>
+        <v>14.732752</v>
       </c>
       <c r="N19">
-        <v>11.3570447113631</v>
+        <v>44.198256</v>
       </c>
       <c r="O19">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="P19">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="Q19">
-        <v>207.7139554242191</v>
+        <v>403.904171318784</v>
       </c>
       <c r="R19">
-        <v>207.7139554242191</v>
+        <v>3635.137541869056</v>
       </c>
       <c r="S19">
-        <v>0.02663205559682034</v>
+        <v>0.03790087723246323</v>
       </c>
       <c r="T19">
-        <v>0.02663205559682034</v>
+        <v>0.03790087723246324</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.3057319809075</v>
+        <v>35.859806</v>
       </c>
       <c r="H20">
-        <v>33.3057319809075</v>
+        <v>107.579418</v>
       </c>
       <c r="I20">
-        <v>0.3412148029176246</v>
+        <v>0.2952348354027935</v>
       </c>
       <c r="J20">
-        <v>0.3412148029176246</v>
+        <v>0.2952348354027935</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.26584608635949</v>
+        <v>8.394385333333334</v>
       </c>
       <c r="N20">
-        <v>7.26584608635949</v>
+        <v>25.183156</v>
       </c>
       <c r="O20">
-        <v>0.09093191257178947</v>
+        <v>0.0956753723079781</v>
       </c>
       <c r="P20">
-        <v>0.09093191257178947</v>
+        <v>0.09567537230797811</v>
       </c>
       <c r="Q20">
-        <v>241.9943223668149</v>
+        <v>301.0210295425787</v>
       </c>
       <c r="R20">
-        <v>241.9943223668149</v>
+        <v>2709.189265883208</v>
       </c>
       <c r="S20">
-        <v>0.03102731462710582</v>
+        <v>0.0282467027954469</v>
       </c>
       <c r="T20">
-        <v>0.03102731462710582</v>
+        <v>0.02824670279544691</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.3057319809075</v>
+        <v>35.859806</v>
       </c>
       <c r="H21">
-        <v>33.3057319809075</v>
+        <v>107.579418</v>
       </c>
       <c r="I21">
-        <v>0.3412148029176246</v>
+        <v>0.2952348354027935</v>
       </c>
       <c r="J21">
-        <v>0.3412148029176246</v>
+        <v>0.2952348354027935</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.4947162737205</v>
+        <v>10.728784</v>
       </c>
       <c r="N21">
-        <v>10.4947162737205</v>
+        <v>32.186352</v>
       </c>
       <c r="O21">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="P21">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="Q21">
-        <v>349.5342074282033</v>
+        <v>384.7321128559039</v>
       </c>
       <c r="R21">
-        <v>349.5342074282033</v>
+        <v>3462.589015703136</v>
       </c>
       <c r="S21">
-        <v>0.0448155465828323</v>
+        <v>0.03610184200159972</v>
       </c>
       <c r="T21">
-        <v>0.0448155465828323</v>
+        <v>0.03610184200159972</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.3057319809075</v>
+        <v>35.859806</v>
       </c>
       <c r="H22">
-        <v>33.3057319809075</v>
+        <v>107.579418</v>
       </c>
       <c r="I22">
-        <v>0.3412148029176246</v>
+        <v>0.2952348354027935</v>
       </c>
       <c r="J22">
-        <v>0.3412148029176246</v>
+        <v>0.2952348354027935</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.36087346180102</v>
+        <v>2.472198666666666</v>
       </c>
       <c r="N22">
-        <v>2.36087346180102</v>
+        <v>7.416595999999999</v>
       </c>
       <c r="O22">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="P22">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="Q22">
-        <v>78.63061875958203</v>
+        <v>88.65256458012533</v>
       </c>
       <c r="R22">
-        <v>78.63061875958203</v>
+        <v>797.8730812211279</v>
       </c>
       <c r="S22">
-        <v>0.01008162887342236</v>
+        <v>0.008318829576638459</v>
       </c>
       <c r="T22">
-        <v>0.01008162887342236</v>
+        <v>0.008318829576638462</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.3057319809075</v>
+        <v>35.859806</v>
       </c>
       <c r="H23">
-        <v>33.3057319809075</v>
+        <v>107.579418</v>
       </c>
       <c r="I23">
-        <v>0.3412148029176246</v>
+        <v>0.2952348354027935</v>
       </c>
       <c r="J23">
-        <v>0.3412148029176246</v>
+        <v>0.2952348354027935</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.8242313485253</v>
+        <v>2.941697666666666</v>
       </c>
       <c r="N23">
-        <v>2.8242313485253</v>
+        <v>8.825092999999999</v>
       </c>
       <c r="O23">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026181</v>
       </c>
       <c r="P23">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026182</v>
       </c>
       <c r="Q23">
-        <v>94.0630923460606</v>
+        <v>105.4887076373193</v>
       </c>
       <c r="R23">
-        <v>94.0630923460606</v>
+        <v>949.3983687358739</v>
       </c>
       <c r="S23">
-        <v>0.01206030427687403</v>
+        <v>0.009898671124190267</v>
       </c>
       <c r="T23">
-        <v>0.01206030427687403</v>
+        <v>0.009898671124190269</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.3057319809075</v>
+        <v>35.859806</v>
       </c>
       <c r="H24">
-        <v>33.3057319809075</v>
+        <v>107.579418</v>
       </c>
       <c r="I24">
-        <v>0.3412148029176246</v>
+        <v>0.2952348354027935</v>
       </c>
       <c r="J24">
-        <v>0.3412148029176246</v>
+        <v>0.2952348354027935</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>45.6015360424476</v>
+        <v>48.46838633333333</v>
       </c>
       <c r="N24">
-        <v>45.6015360424476</v>
+        <v>145.405159</v>
       </c>
       <c r="O24">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="P24">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="Q24">
-        <v>1518.792537347453</v>
+        <v>1738.066931046385</v>
       </c>
       <c r="R24">
-        <v>1518.792537347453</v>
+        <v>15642.60237941746</v>
       </c>
       <c r="S24">
-        <v>0.1947320641603697</v>
+        <v>0.1630937882129508</v>
       </c>
       <c r="T24">
-        <v>0.1947320641603697</v>
+        <v>0.1630937882129508</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.3057319809075</v>
+        <v>35.859806</v>
       </c>
       <c r="H25">
-        <v>33.3057319809075</v>
+        <v>107.579418</v>
       </c>
       <c r="I25">
-        <v>0.3412148029176246</v>
+        <v>0.2952348354027935</v>
       </c>
       <c r="J25">
-        <v>0.3412148029176246</v>
+        <v>0.2952348354027935</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.3570447113631</v>
+        <v>14.732752</v>
       </c>
       <c r="N25">
-        <v>11.3570447113631</v>
+        <v>44.198256</v>
       </c>
       <c r="O25">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="P25">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="Q25">
-        <v>378.2546872518424</v>
+        <v>528.313628566112</v>
       </c>
       <c r="R25">
-        <v>378.2546872518424</v>
+        <v>4754.822657095008</v>
       </c>
       <c r="S25">
-        <v>0.04849794439702043</v>
+        <v>0.04957500169196736</v>
       </c>
       <c r="T25">
-        <v>0.04849794439702043</v>
+        <v>0.04957500169196737</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.00747108191284</v>
+        <v>5.108541333333332</v>
       </c>
       <c r="H26">
-        <v>5.00747108191284</v>
+        <v>15.325624</v>
       </c>
       <c r="I26">
-        <v>0.05130117720607558</v>
+        <v>0.04205877075004348</v>
       </c>
       <c r="J26">
-        <v>0.05130117720607558</v>
+        <v>0.04205877075004349</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.26584608635949</v>
+        <v>8.394385333333334</v>
       </c>
       <c r="N26">
-        <v>7.26584608635949</v>
+        <v>25.183156</v>
       </c>
       <c r="O26">
-        <v>0.09093191257178947</v>
+        <v>0.0956753723079781</v>
       </c>
       <c r="P26">
-        <v>0.09093191257178947</v>
+        <v>0.09567537230797811</v>
       </c>
       <c r="Q26">
-        <v>36.38351416307473</v>
+        <v>42.88306444326044</v>
       </c>
       <c r="R26">
-        <v>36.38351416307473</v>
+        <v>385.9475799893439</v>
       </c>
       <c r="S26">
-        <v>0.004664914160532743</v>
+        <v>0.004023988550326309</v>
       </c>
       <c r="T26">
-        <v>0.004664914160532743</v>
+        <v>0.004023988550326311</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.00747108191284</v>
+        <v>5.108541333333332</v>
       </c>
       <c r="H27">
-        <v>5.00747108191284</v>
+        <v>15.325624</v>
       </c>
       <c r="I27">
-        <v>0.05130117720607558</v>
+        <v>0.04205877075004348</v>
       </c>
       <c r="J27">
-        <v>0.05130117720607558</v>
+        <v>0.04205877075004349</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>10.4947162737205</v>
+        <v>10.728784</v>
       </c>
       <c r="N27">
-        <v>10.4947162737205</v>
+        <v>32.186352</v>
       </c>
       <c r="O27">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="P27">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="Q27">
-        <v>52.55198825353548</v>
+        <v>54.80843652040532</v>
       </c>
       <c r="R27">
-        <v>52.55198825353548</v>
+        <v>493.2759286836479</v>
       </c>
       <c r="S27">
-        <v>0.00673795590687798</v>
+        <v>0.005143021467395599</v>
       </c>
       <c r="T27">
-        <v>0.00673795590687798</v>
+        <v>0.005143021467395601</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.00747108191284</v>
+        <v>5.108541333333332</v>
       </c>
       <c r="H28">
-        <v>5.00747108191284</v>
+        <v>15.325624</v>
       </c>
       <c r="I28">
-        <v>0.05130117720607558</v>
+        <v>0.04205877075004348</v>
       </c>
       <c r="J28">
-        <v>0.05130117720607558</v>
+        <v>0.04205877075004349</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.36087346180102</v>
+        <v>2.472198666666666</v>
       </c>
       <c r="N28">
-        <v>2.36087346180102</v>
+        <v>7.416595999999999</v>
       </c>
       <c r="O28">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="P28">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="Q28">
-        <v>11.82200558802406</v>
+        <v>12.62932907287822</v>
       </c>
       <c r="R28">
-        <v>11.82200558802406</v>
+        <v>113.663961655904</v>
       </c>
       <c r="S28">
-        <v>0.001515759061268482</v>
+        <v>0.001185089644300178</v>
       </c>
       <c r="T28">
-        <v>0.001515759061268482</v>
+        <v>0.001185089644300179</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.00747108191284</v>
+        <v>5.108541333333332</v>
       </c>
       <c r="H29">
-        <v>5.00747108191284</v>
+        <v>15.325624</v>
       </c>
       <c r="I29">
-        <v>0.05130117720607558</v>
+        <v>0.04205877075004348</v>
       </c>
       <c r="J29">
-        <v>0.05130117720607558</v>
+        <v>0.04205877075004349</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.8242313485253</v>
+        <v>2.941697666666666</v>
       </c>
       <c r="N29">
-        <v>2.8242313485253</v>
+        <v>8.825092999999999</v>
       </c>
       <c r="O29">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026181</v>
       </c>
       <c r="P29">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026182</v>
       </c>
       <c r="Q29">
-        <v>14.14225680637214</v>
+        <v>15.02778412033688</v>
       </c>
       <c r="R29">
-        <v>14.14225680637214</v>
+        <v>135.250057083032</v>
       </c>
       <c r="S29">
-        <v>0.001813250191892973</v>
+        <v>0.001410151816855872</v>
       </c>
       <c r="T29">
-        <v>0.001813250191892973</v>
+        <v>0.001410151816855873</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.00747108191284</v>
+        <v>5.108541333333332</v>
       </c>
       <c r="H30">
-        <v>5.00747108191284</v>
+        <v>15.325624</v>
       </c>
       <c r="I30">
-        <v>0.05130117720607558</v>
+        <v>0.04205877075004348</v>
       </c>
       <c r="J30">
-        <v>0.05130117720607558</v>
+        <v>0.04205877075004349</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>45.6015360424476</v>
+        <v>48.46838633333333</v>
       </c>
       <c r="N30">
-        <v>45.6015360424476</v>
+        <v>145.405159</v>
       </c>
       <c r="O30">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="P30">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="Q30">
-        <v>228.3483730233624</v>
+        <v>247.6027549438017</v>
       </c>
       <c r="R30">
-        <v>228.3483730233624</v>
+        <v>2228.424794494216</v>
       </c>
       <c r="S30">
-        <v>0.02927769852238142</v>
+        <v>0.0232341289937757</v>
       </c>
       <c r="T30">
-        <v>0.02927769852238142</v>
+        <v>0.0232341289937757</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.00747108191284</v>
+        <v>5.108541333333332</v>
       </c>
       <c r="H31">
-        <v>5.00747108191284</v>
+        <v>15.325624</v>
       </c>
       <c r="I31">
-        <v>0.05130117720607558</v>
+        <v>0.04205877075004348</v>
       </c>
       <c r="J31">
-        <v>0.05130117720607558</v>
+        <v>0.04205877075004349</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.3570447113631</v>
+        <v>14.732752</v>
       </c>
       <c r="N31">
-        <v>11.3570447113631</v>
+        <v>44.198256</v>
       </c>
       <c r="O31">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="P31">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="Q31">
-        <v>56.87007296814188</v>
+        <v>75.26287254574932</v>
       </c>
       <c r="R31">
-        <v>56.87007296814188</v>
+        <v>677.3658529117439</v>
       </c>
       <c r="S31">
-        <v>0.007291599363121985</v>
+        <v>0.007062390277389819</v>
       </c>
       <c r="T31">
-        <v>0.007291599363121985</v>
+        <v>0.007062390277389822</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.03862040428669</v>
+        <v>11.60556166666667</v>
       </c>
       <c r="H32">
-        <v>5.03862040428669</v>
+        <v>34.816685</v>
       </c>
       <c r="I32">
-        <v>0.05162029974933341</v>
+        <v>0.09554892986357215</v>
       </c>
       <c r="J32">
-        <v>0.05162029974933341</v>
+        <v>0.09554892986357215</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.26584608635949</v>
+        <v>8.394385333333334</v>
       </c>
       <c r="N32">
-        <v>7.26584608635949</v>
+        <v>25.183156</v>
       </c>
       <c r="O32">
-        <v>0.09093191257178947</v>
+        <v>0.0956753723079781</v>
       </c>
       <c r="P32">
-        <v>0.09093191257178947</v>
+        <v>0.09567537230797811</v>
       </c>
       <c r="Q32">
-        <v>36.60984034513752</v>
+        <v>97.42155663976223</v>
       </c>
       <c r="R32">
-        <v>36.60984034513752</v>
+        <v>876.79400975786</v>
       </c>
       <c r="S32">
-        <v>0.004693932583735952</v>
+        <v>0.009141679438326153</v>
       </c>
       <c r="T32">
-        <v>0.004693932583735952</v>
+        <v>0.009141679438326153</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.03862040428669</v>
+        <v>11.60556166666667</v>
       </c>
       <c r="H33">
-        <v>5.03862040428669</v>
+        <v>34.816685</v>
       </c>
       <c r="I33">
-        <v>0.05162029974933341</v>
+        <v>0.09554892986357215</v>
       </c>
       <c r="J33">
-        <v>0.05162029974933341</v>
+        <v>0.09554892986357215</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>10.4947162737205</v>
+        <v>10.728784</v>
       </c>
       <c r="N33">
-        <v>10.4947162737205</v>
+        <v>32.186352</v>
       </c>
       <c r="O33">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="P33">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="Q33">
-        <v>52.8788915539677</v>
+        <v>124.5135643203467</v>
       </c>
       <c r="R33">
-        <v>52.8788915539677</v>
+        <v>1120.62207888312</v>
       </c>
       <c r="S33">
-        <v>0.006779869830543407</v>
+        <v>0.01168389348313324</v>
       </c>
       <c r="T33">
-        <v>0.006779869830543407</v>
+        <v>0.01168389348313324</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.03862040428669</v>
+        <v>11.60556166666667</v>
       </c>
       <c r="H34">
-        <v>5.03862040428669</v>
+        <v>34.816685</v>
       </c>
       <c r="I34">
-        <v>0.05162029974933341</v>
+        <v>0.09554892986357215</v>
       </c>
       <c r="J34">
-        <v>0.05162029974933341</v>
+        <v>0.09554892986357215</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.36087346180102</v>
+        <v>2.472198666666666</v>
       </c>
       <c r="N34">
-        <v>2.36087346180102</v>
+        <v>7.416595999999999</v>
       </c>
       <c r="O34">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="P34">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="Q34">
-        <v>11.89554519656957</v>
+        <v>28.69125407825111</v>
       </c>
       <c r="R34">
-        <v>11.89554519656957</v>
+        <v>258.22128670426</v>
       </c>
       <c r="S34">
-        <v>0.00152518794600255</v>
+        <v>0.002692281426345926</v>
       </c>
       <c r="T34">
-        <v>0.00152518794600255</v>
+        <v>0.002692281426345927</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.03862040428669</v>
+        <v>11.60556166666667</v>
       </c>
       <c r="H35">
-        <v>5.03862040428669</v>
+        <v>34.816685</v>
       </c>
       <c r="I35">
-        <v>0.05162029974933341</v>
+        <v>0.09554892986357215</v>
       </c>
       <c r="J35">
-        <v>0.05162029974933341</v>
+        <v>0.09554892986357215</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.8242313485253</v>
+        <v>2.941697666666666</v>
       </c>
       <c r="N35">
-        <v>2.8242313485253</v>
+        <v>8.825092999999999</v>
       </c>
       <c r="O35">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026181</v>
       </c>
       <c r="P35">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026182</v>
       </c>
       <c r="Q35">
-        <v>14.23022969910569</v>
+        <v>34.14005367518944</v>
       </c>
       <c r="R35">
-        <v>14.23022969910569</v>
+        <v>307.260483076705</v>
       </c>
       <c r="S35">
-        <v>0.00182452964090981</v>
+        <v>0.00320357667718121</v>
       </c>
       <c r="T35">
-        <v>0.00182452964090981</v>
+        <v>0.00320357667718121</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.03862040428669</v>
+        <v>11.60556166666667</v>
       </c>
       <c r="H36">
-        <v>5.03862040428669</v>
+        <v>34.816685</v>
       </c>
       <c r="I36">
-        <v>0.05162029974933341</v>
+        <v>0.09554892986357215</v>
       </c>
       <c r="J36">
-        <v>0.05162029974933341</v>
+        <v>0.09554892986357215</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>45.6015360424476</v>
+        <v>48.46838633333333</v>
       </c>
       <c r="N36">
-        <v>45.6015360424476</v>
+        <v>145.405159</v>
       </c>
       <c r="O36">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="P36">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="Q36">
-        <v>229.7688299702914</v>
+        <v>562.5028464753238</v>
       </c>
       <c r="R36">
-        <v>229.7688299702914</v>
+        <v>5062.525618277915</v>
       </c>
       <c r="S36">
-        <v>0.02945982248370237</v>
+        <v>0.05278319175947784</v>
       </c>
       <c r="T36">
-        <v>0.02945982248370237</v>
+        <v>0.05278319175947784</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.03862040428669</v>
+        <v>11.60556166666667</v>
       </c>
       <c r="H37">
-        <v>5.03862040428669</v>
+        <v>34.816685</v>
       </c>
       <c r="I37">
-        <v>0.05162029974933341</v>
+        <v>0.09554892986357215</v>
       </c>
       <c r="J37">
-        <v>0.05162029974933341</v>
+        <v>0.09554892986357215</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.3570447113631</v>
+        <v>14.732752</v>
       </c>
       <c r="N37">
-        <v>11.3570447113631</v>
+        <v>44.198256</v>
       </c>
       <c r="O37">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="P37">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="Q37">
-        <v>57.22383721507036</v>
+        <v>170.9818618557067</v>
       </c>
       <c r="R37">
-        <v>57.22383721507036</v>
+        <v>1538.83675670136</v>
       </c>
       <c r="S37">
-        <v>0.007336957264439327</v>
+        <v>0.01604430707910778</v>
       </c>
       <c r="T37">
-        <v>0.007336957264439327</v>
+        <v>0.01604430707910778</v>
       </c>
     </row>
   </sheetData>
